--- a/chatbook_charts.xlsx
+++ b/chatbook_charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuchen\Documents\GitHub\exchatbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21B12F97-75EC-40C7-AC60-E20C68588F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8014193-DB17-45EB-BC7E-186669F45827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27015" yWindow="1365" windowWidth="24360" windowHeight="19065" xr2:uid="{C77A330E-82A8-4DF5-9FBA-6BA8A73FFBAA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>IRR_Range</t>
   </si>
@@ -44,6 +44,9 @@
   <si>
     <t>Hang Seng Composite</t>
   </si>
+  <si>
+    <t>FTSE All Share</t>
+  </si>
 </sst>
 </file>
 
@@ -51,7 +54,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -92,7 +95,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -158,23 +161,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Hang Seng Composite</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTSE All Share</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>Sheet1!$B$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>590907</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>712546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -211,23 +220,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Hang Seng Composite</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTSE All Share</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3</c:f>
+              <c:f>Sheet1!$B$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>896087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1749129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -264,23 +279,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Hang Seng Composite</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTSE All Share</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4</c:f>
+              <c:f>Sheet1!$B$4:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>21996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -317,23 +338,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Hang Seng Composite</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FTSE All Share</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5</c:f>
+              <c:f>Sheet1!$B$5:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>4939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,54 +1450,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE089598-4248-4448-BC8A-D558A289EBFB}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>590907</v>
       </c>
+      <c r="C2" s="1">
+        <v>712546</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>896087</v>
       </c>
+      <c r="C3" s="1">
+        <v>1749129</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>21996</v>
       </c>
+      <c r="C4" s="1">
+        <v>17601</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>4939</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7579</v>
       </c>
     </row>
   </sheetData>

--- a/chatbook_charts.xlsx
+++ b/chatbook_charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuchen\Documents\GitHub\exchatbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8014193-DB17-45EB-BC7E-186669F45827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93F71AD-1366-477C-B475-3D1D9211F433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27015" yWindow="1365" windowWidth="24360" windowHeight="19065" xr2:uid="{C77A330E-82A8-4DF5-9FBA-6BA8A73FFBAA}"/>
+    <workbookView xWindow="7155" yWindow="840" windowWidth="24360" windowHeight="19065" xr2:uid="{C77A330E-82A8-4DF5-9FBA-6BA8A73FFBAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>IRR_Range</t>
-  </si>
-  <si>
-    <t>IRR &lt; 0</t>
   </si>
   <si>
     <t>IRR 0-50%</t>
@@ -42,10 +39,19 @@
     <t>IRR &gt; 100%</t>
   </si>
   <si>
-    <t>Hang Seng Composite</t>
+    <t>Hang Seng Composite (HK)</t>
   </si>
   <si>
-    <t>FTSE All Share</t>
+    <t>SSE &amp; SZSE Composite (CN)</t>
+  </si>
+  <si>
+    <t>Russell 2000 (US)</t>
+  </si>
+  <si>
+    <t>FTSE All Share (UK)</t>
+  </si>
+  <si>
+    <t>IRR &lt; 0%</t>
   </si>
 </sst>
 </file>
@@ -144,7 +150,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IRR &lt; 0</c:v>
+                  <c:v>IRR &lt; 0%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -161,28 +167,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Hang Seng Composite</c:v>
+                  <c:v>Hang Seng Composite (HK)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FTSE All Share</c:v>
+                  <c:v>SSE &amp; SZSE Composite (CN)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Russell 2000 (US)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTSE All Share (UK)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$C$2</c:f>
+              <c:f>Sheet1!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>590907</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1988304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2068662</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>712546</c:v>
                 </c:pt>
               </c:numCache>
@@ -220,28 +238,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Hang Seng Composite</c:v>
+                  <c:v>Hang Seng Composite (HK)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FTSE All Share</c:v>
+                  <c:v>SSE &amp; SZSE Composite (CN)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Russell 2000 (US)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTSE All Share (UK)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$C$3</c:f>
+              <c:f>Sheet1!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>896087</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3432595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3774545</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1749129</c:v>
                 </c:pt>
               </c:numCache>
@@ -279,28 +309,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Hang Seng Composite</c:v>
+                  <c:v>Hang Seng Composite (HK)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FTSE All Share</c:v>
+                  <c:v>SSE &amp; SZSE Composite (CN)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Russell 2000 (US)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTSE All Share (UK)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$C$4</c:f>
+              <c:f>Sheet1!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>21996</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>60027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84511</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>17601</c:v>
                 </c:pt>
               </c:numCache>
@@ -338,28 +380,40 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:f>Sheet1!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Hang Seng Composite</c:v>
+                  <c:v>Hang Seng Composite (HK)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FTSE All Share</c:v>
+                  <c:v>SSE &amp; SZSE Composite (CN)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Russell 2000 (US)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTSE All Share (UK)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$C$5</c:f>
+              <c:f>Sheet1!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>4939</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>20564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31430</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7579</c:v>
                 </c:pt>
               </c:numCache>
@@ -413,7 +467,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -456,6 +510,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -500,7 +568,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -608,7 +676,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="306">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -619,7 +687,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -642,14 +710,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -665,7 +733,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -685,22 +753,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -709,35 +772,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -746,33 +819,29 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -794,15 +863,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -812,7 +879,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -821,75 +888,174 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -902,54 +1068,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -959,77 +1088,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1038,14 +1108,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1066,20 +1136,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1100,14 +1169,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1116,8 +1179,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
@@ -1450,71 +1513,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE089598-4248-4448-BC8A-D558A289EBFB}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>590907</v>
       </c>
       <c r="C2" s="1">
+        <v>1988304</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2068662</v>
+      </c>
+      <c r="E2" s="1">
         <v>712546</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>896087</v>
       </c>
       <c r="C3" s="1">
+        <v>3432595</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3774545</v>
+      </c>
+      <c r="E3" s="1">
         <v>1749129</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>21996</v>
       </c>
       <c r="C4" s="1">
+        <v>60027</v>
+      </c>
+      <c r="D4" s="1">
+        <v>84511</v>
+      </c>
+      <c r="E4" s="1">
         <v>17601</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>4939</v>
       </c>
       <c r="C5" s="1">
+        <v>20564</v>
+      </c>
+      <c r="D5" s="1">
+        <v>31430</v>
+      </c>
+      <c r="E5" s="1">
         <v>7579</v>
       </c>
     </row>

--- a/chatbook_charts.xlsx
+++ b/chatbook_charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuchen\Documents\GitHub\exchatbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93F71AD-1366-477C-B475-3D1D9211F433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68086BC-574E-4913-8130-EBFD2DD2DCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7155" yWindow="840" windowWidth="24360" windowHeight="19065" xr2:uid="{C77A330E-82A8-4DF5-9FBA-6BA8A73FFBAA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>IRR_Range</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>IRR &lt; 0%</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>SZSE</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
                   <c:v>590907</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1988304</c:v>
+                  <c:v>2400254</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2068662</c:v>
@@ -266,7 +272,7 @@
                   <c:v>896087</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3432595</c:v>
+                  <c:v>4587549</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3774545</c:v>
@@ -337,7 +343,7 @@
                   <c:v>21996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60027</c:v>
+                  <c:v>82584</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>84511</c:v>
@@ -408,7 +414,7 @@
                   <c:v>4939</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20564</c:v>
+                  <c:v>26692</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>31430</c:v>
@@ -1179,16 +1185,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1513,7 +1519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE089598-4248-4448-BC8A-D558A289EBFB}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1524,9 +1530,10 @@
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1542,8 +1549,14 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1551,7 +1564,8 @@
         <v>590907</v>
       </c>
       <c r="C2" s="1">
-        <v>1988304</v>
+        <f>SUM(H2:I2)</f>
+        <v>2400254</v>
       </c>
       <c r="D2" s="1">
         <v>2068662</v>
@@ -1559,8 +1573,14 @@
       <c r="E2" s="1">
         <v>712546</v>
       </c>
+      <c r="H2" s="1">
+        <v>1988304</v>
+      </c>
+      <c r="I2" s="1">
+        <v>411950</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1568,7 +1588,8 @@
         <v>896087</v>
       </c>
       <c r="C3" s="1">
-        <v>3432595</v>
+        <f>SUM(H3:I3)</f>
+        <v>4587549</v>
       </c>
       <c r="D3" s="1">
         <v>3774545</v>
@@ -1576,8 +1597,14 @@
       <c r="E3" s="1">
         <v>1749129</v>
       </c>
+      <c r="H3" s="1">
+        <v>3432595</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1154954</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1585,7 +1612,8 @@
         <v>21996</v>
       </c>
       <c r="C4" s="1">
-        <v>60027</v>
+        <f>SUM(H4:I4)</f>
+        <v>82584</v>
       </c>
       <c r="D4" s="1">
         <v>84511</v>
@@ -1593,8 +1621,14 @@
       <c r="E4" s="1">
         <v>17601</v>
       </c>
+      <c r="H4" s="1">
+        <v>60027</v>
+      </c>
+      <c r="I4" s="1">
+        <v>22557</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1602,13 +1636,20 @@
         <v>4939</v>
       </c>
       <c r="C5" s="1">
-        <v>20564</v>
+        <f>SUM(H5:I5)</f>
+        <v>26692</v>
       </c>
       <c r="D5" s="1">
         <v>31430</v>
       </c>
       <c r="E5" s="1">
         <v>7579</v>
+      </c>
+      <c r="H5" s="1">
+        <v>20564</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6128</v>
       </c>
     </row>
   </sheetData>

--- a/chatbook_charts.xlsx
+++ b/chatbook_charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuchen\Documents\GitHub\exchatbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\GitHub\exchatbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68086BC-574E-4913-8130-EBFD2DD2DCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB2102C-ED50-4BF4-AD89-C1081E56AA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="840" windowWidth="24360" windowHeight="19065" xr2:uid="{C77A330E-82A8-4DF5-9FBA-6BA8A73FFBAA}"/>
+    <workbookView xWindow="24420" yWindow="810" windowWidth="24360" windowHeight="19065" xr2:uid="{C77A330E-82A8-4DF5-9FBA-6BA8A73FFBAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>IRR_Range</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>SZSE</t>
+  </si>
+  <si>
+    <t>CDAX (DE)</t>
+  </si>
+  <si>
+    <t>JPX-Nikkei 400 (JP)</t>
   </si>
 </sst>
 </file>
@@ -101,17 +107,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -171,11 +180,239 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{212CE79D-B952-4AF3-A363-BA039DCA907E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{30FFAB6C-183D-4D81-A9D2-513C1D3E52B7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5AA76417-061F-44F3-8488-87E1A1844597}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DFE34852-AA9F-4795-A6B3-BEC93B7CCCD4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{932877BC-64EC-4D13-83AF-5B5503F5A82D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Hang Seng Composite (HK)</c:v>
                 </c:pt>
@@ -187,16 +424,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>FTSE All Share (UK)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CDAX (DE)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$E$2</c:f>
+              <c:f>Sheet1!$B$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>590907</c:v>
                 </c:pt>
@@ -208,11 +448,40 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>712546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>598847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$B$8:$G$8</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>39.03%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>33.82%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>34.71%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28.65%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>36.23%</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10.63%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FBB1-4F99-865B-A08680096D11}"/>
             </c:ext>
@@ -242,11 +511,239 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DED80882-07AE-4AC2-A152-1B3C57B2AA8A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B97679B3-EE19-4B05-B3ED-35D549D636BB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CF6B790E-CEA0-49B8-B93F-89629FFF184B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{358B0886-3402-4857-ADC2-00A34832BCC7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0F27B54F-489F-4028-B7DD-F0AC8B0CC850}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Hang Seng Composite (HK)</c:v>
                 </c:pt>
@@ -258,16 +755,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>FTSE All Share (UK)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CDAX (DE)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$E$3</c:f>
+              <c:f>Sheet1!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>896087</c:v>
                 </c:pt>
@@ -279,11 +779,37 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1749129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1035969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$B$9:$F$9</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>59.19%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>64.64%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>63.34%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>70.33%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>62.68%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FBB1-4F99-865B-A08680096D11}"/>
             </c:ext>
@@ -313,11 +839,239 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{07C15BC8-8A1C-47CC-9AE6-465E21444478}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E86C78F2-821E-4B12-936B-D3FE197C69ED}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C286A366-864C-4CC6-B31B-90D9D53606FF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{37A9370D-E6FD-4532-9EE9-F28F896C5758}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D8F81B87-2E4C-4ADC-9131-FF1FFAB0E993}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Hang Seng Composite (HK)</c:v>
                 </c:pt>
@@ -329,16 +1083,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>FTSE All Share (UK)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CDAX (DE)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:f>Sheet1!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>21996</c:v>
                 </c:pt>
@@ -350,11 +1107,37 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>17601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$B$10:$F$10</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.45%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.16%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.42%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.71%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.79%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FBB1-4F99-865B-A08680096D11}"/>
             </c:ext>
@@ -384,11 +1167,239 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8BDE6CC0-232F-4AFD-B37D-8C48A96D4A87}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{79E921E8-E55E-4C9D-85DC-7D76E81BBA49}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3607D53E-5ED0-46F8-903D-16D6B05F2D5E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F078698B-ADCA-45AA-9949-710770F83298}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2E285DFF-4D16-4BC8-A034-995AB5B3BF2A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-A827-49FA-B988-155C5CB27E41}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
+              <c:f>Sheet1!$B$1:$F$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Hang Seng Composite (HK)</c:v>
                 </c:pt>
@@ -400,16 +1411,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>FTSE All Share (UK)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CDAX (DE)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$E$5</c:f>
+              <c:f>Sheet1!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4939</c:v>
                 </c:pt>
@@ -421,19 +1435,46 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$B$11:$F$11</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.33%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.38%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.53%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.30%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.30%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FBB1-4F99-865B-A08680096D11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1185,16 +2226,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1519,9 +2560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE089598-4248-4448-BC8A-D558A289EBFB}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1530,10 +2573,12 @@
     <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1549,14 +2594,20 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1564,7 +2615,7 @@
         <v>590907</v>
       </c>
       <c r="C2" s="1">
-        <f>SUM(H2:I2)</f>
+        <f>SUM(I2:J2)</f>
         <v>2400254</v>
       </c>
       <c r="D2" s="1">
@@ -1573,14 +2624,20 @@
       <c r="E2" s="1">
         <v>712546</v>
       </c>
-      <c r="H2" s="1">
+      <c r="F2" s="1">
+        <v>598847</v>
+      </c>
+      <c r="G2" s="1">
+        <v>211929</v>
+      </c>
+      <c r="I2" s="1">
         <v>1988304</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>411950</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1588,7 +2645,7 @@
         <v>896087</v>
       </c>
       <c r="C3" s="1">
-        <f>SUM(H3:I3)</f>
+        <f>SUM(I3:J3)</f>
         <v>4587549</v>
       </c>
       <c r="D3" s="1">
@@ -1597,14 +2654,20 @@
       <c r="E3" s="1">
         <v>1749129</v>
       </c>
-      <c r="H3" s="1">
+      <c r="F3" s="1">
+        <v>1035969</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1746857</v>
+      </c>
+      <c r="I3" s="1">
         <v>3432595</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>1154954</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1612,7 +2675,7 @@
         <v>21996</v>
       </c>
       <c r="C4" s="1">
-        <f>SUM(H4:I4)</f>
+        <f>SUM(I4:J4)</f>
         <v>82584</v>
       </c>
       <c r="D4" s="1">
@@ -1621,14 +2684,20 @@
       <c r="E4" s="1">
         <v>17601</v>
       </c>
-      <c r="H4" s="1">
+      <c r="F4" s="1">
+        <v>13059</v>
+      </c>
+      <c r="G4" s="1">
+        <v>26824</v>
+      </c>
+      <c r="I4" s="1">
         <v>60027</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>22557</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1636,7 +2705,7 @@
         <v>4939</v>
       </c>
       <c r="C5" s="1">
-        <f>SUM(H5:I5)</f>
+        <f>SUM(I5:J5)</f>
         <v>26692</v>
       </c>
       <c r="D5" s="1">
@@ -1645,11 +2714,121 @@
       <c r="E5" s="1">
         <v>7579</v>
       </c>
-      <c r="H5" s="1">
+      <c r="F5" s="1">
+        <v>5013</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8164</v>
+      </c>
+      <c r="I5" s="1">
         <v>20564</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>6128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <f>B2/SUM(B$2:B$5)</f>
+        <v>0.39031354838965365</v>
+      </c>
+      <c r="C8" s="2">
+        <f>C2/SUM(C$2:C$5)</f>
+        <v>0.3382030832684827</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:G8" si="0">D2/SUM(D$2:D$5)</f>
+        <v>0.34714056438940599</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28652494817751739</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.36230343495748046</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.10629539757264364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <f t="shared" ref="B9" si="1">B3/SUM(B$2:B$5)</f>
+        <v>0.59189499639679266</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:G12" si="2">C3/SUM(C$2:C$5)</f>
+        <v>0.64639959622825105</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.63340346640157286</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.70334981331842827</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.62676297486581067</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>0.87615597354564756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <f t="shared" ref="B10" si="3">B4/SUM(B$2:B$5)</f>
+        <v>1.4529082935857626E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1636336582980125E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4181725307040536E-2</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="2"/>
+        <v>7.077614094911042E-3</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="2"/>
+        <v>7.9007168059783851E-3</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3453881934461981E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <f t="shared" ref="B11" si="4">B5/SUM(B$2:B$5)</f>
+        <v>3.2623722776959816E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="2"/>
+        <v>3.7609839202860781E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>5.2742439019806183E-3</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>3.0476244091432753E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>3.0328733707305033E-3</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>4.0947469472467791E-3</v>
       </c>
     </row>
   </sheetData>

--- a/chatbook_charts.xlsx
+++ b/chatbook_charts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Work\GitHub\exchatbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\exchatbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB2102C-ED50-4BF4-AD89-C1081E56AA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCA5B73-56B3-477B-B232-74CFA77512BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24420" yWindow="810" windowWidth="24360" windowHeight="19065" xr2:uid="{C77A330E-82A8-4DF5-9FBA-6BA8A73FFBAA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C77A330E-82A8-4DF5-9FBA-6BA8A73FFBAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>IRR_Range</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>JPX-Nikkei 400 (JP)</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Data:</t>
   </si>
 </sst>
 </file>
@@ -188,7 +194,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{212CE79D-B952-4AF3-A363-BA039DCA907E}" type="CELLRANGE">
+                    <a:fld id="{2F1BA34D-B0C0-420C-9502-8C482833F47E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -222,7 +228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30FFAB6C-183D-4D81-A9D2-513C1D3E52B7}" type="CELLRANGE">
+                    <a:fld id="{A58F15EF-A1B6-43F1-9EFB-D7EE3EA05EF8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -256,7 +262,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5AA76417-061F-44F3-8488-87E1A1844597}" type="CELLRANGE">
+                    <a:fld id="{9C1B840C-B9A2-492B-9322-9C8CD3D82100}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -290,7 +296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DFE34852-AA9F-4795-A6B3-BEC93B7CCCD4}" type="CELLRANGE">
+                    <a:fld id="{A61552EE-7CB7-47FA-BF3C-2C01A21C6871}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -324,7 +330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{932877BC-64EC-4D13-83AF-5B5503F5A82D}" type="CELLRANGE">
+                    <a:fld id="{9209BA30-6DE2-4A19-94BC-C54423DBF8FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -519,7 +525,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DED80882-07AE-4AC2-A152-1B3C57B2AA8A}" type="CELLRANGE">
+                    <a:fld id="{55859274-1A3C-4D76-A816-842AA7D6E9F0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -553,7 +559,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B97679B3-EE19-4B05-B3ED-35D549D636BB}" type="CELLRANGE">
+                    <a:fld id="{DBE34077-A444-473A-B4B7-A3F693346C95}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -587,7 +593,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF6B790E-CEA0-49B8-B93F-89629FFF184B}" type="CELLRANGE">
+                    <a:fld id="{264847FD-1987-4F45-B8C6-81C836490908}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -621,7 +627,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{358B0886-3402-4857-ADC2-00A34832BCC7}" type="CELLRANGE">
+                    <a:fld id="{36A32244-9431-4B49-B49A-77B4388725DE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -655,7 +661,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F27B54F-489F-4028-B7DD-F0AC8B0CC850}" type="CELLRANGE">
+                    <a:fld id="{BCB094FE-97FB-4B2C-AD9F-5261A0E51385}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -847,7 +853,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07C15BC8-8A1C-47CC-9AE6-465E21444478}" type="CELLRANGE">
+                    <a:fld id="{96D3AF34-B24F-44A0-9C15-D1839687D6D7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -881,7 +887,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E86C78F2-821E-4B12-936B-D3FE197C69ED}" type="CELLRANGE">
+                    <a:fld id="{479F3CC3-3975-41EC-857C-16DE313E430A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -915,7 +921,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C286A366-864C-4CC6-B31B-90D9D53606FF}" type="CELLRANGE">
+                    <a:fld id="{9181D3F4-8BA4-4837-8D2D-82857BB3E232}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -949,7 +955,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{37A9370D-E6FD-4532-9EE9-F28F896C5758}" type="CELLRANGE">
+                    <a:fld id="{3805D063-3C8D-4EBC-A879-FAB819B30923}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -983,7 +989,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8F81B87-2E4C-4ADC-9131-FF1FFAB0E993}" type="CELLRANGE">
+                    <a:fld id="{3679FBFE-C3CC-41A0-B8F9-D8D8CCD6817E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1175,7 +1181,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8BDE6CC0-232F-4AFD-B37D-8C48A96D4A87}" type="CELLRANGE">
+                    <a:fld id="{FB9BEA9C-828A-4BE1-9652-6FAB3E257D71}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1209,7 +1215,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79E921E8-E55E-4C9D-85DC-7D76E81BBA49}" type="CELLRANGE">
+                    <a:fld id="{418E9F19-B90F-40DA-B85E-758ED3999EC0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1243,7 +1249,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3607D53E-5ED0-46F8-903D-16D6B05F2D5E}" type="CELLRANGE">
+                    <a:fld id="{9F93BE7E-9352-4973-B72F-28CDADA638C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1277,7 +1283,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F078698B-ADCA-45AA-9949-710770F83298}" type="CELLRANGE">
+                    <a:fld id="{26828F83-0D9E-4D18-B4F5-B80105387B85}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1311,7 +1317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E285DFF-4D16-4BC8-A034-995AB5B3BF2A}" type="CELLRANGE">
+                    <a:fld id="{56B44D7D-D565-49B8-BDC6-CEE7DDC17A69}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1468,6 +1474,1722 @@
             </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-FBB1-4F99-865B-A08680096D11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="609390288"/>
+        <c:axId val="609394608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="609390288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="609394608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="609394608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="609390288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRR &lt; 0%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{15D9F01A-35EA-47FC-B7B3-501788ED84F3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D6FA6BDE-EB44-4352-A56B-E41AE5A6B46E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B166FED7-B4F7-4023-AA08-55311B941405}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{584E815C-ACA9-4594-BBF1-856E79345CF9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3B545058-DB56-4E20-8CBF-6D40784A7544}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{99E6C8D8-D726-4E44-8D29-8A9030E92C02}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Hang Seng Composite (HK)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSE &amp; SZSE Composite (CN)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Russell 2000 (US)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTSE All Share (UK)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CDAX (DE)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JPX-Nikkei 400 (JP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>590907</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2400254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2068662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>712546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>598847</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>211929</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$B$8:$G$8</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>39.03%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>33.82%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>34.71%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28.65%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>36.23%</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>10.63%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-76BD-4E55-89DF-2F158AD34110}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRR 0-50%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FBBABC8E-D4E7-45E6-89F0-1DF33A4F127A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CA809BCC-4D4F-4820-BDF2-CA3BF96A69C4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2A4DE267-0F75-4E48-AB62-03A155327D64}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AC8A3C02-A210-4C75-BC68-E2AFCE44EEAF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F46EF627-6E49-4F3C-AACB-86C8B5F165D1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0C6FCD76-7DA5-4583-AE9E-5E46E6BEFB18}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Hang Seng Composite (HK)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSE &amp; SZSE Composite (CN)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Russell 2000 (US)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTSE All Share (UK)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CDAX (DE)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JPX-Nikkei 400 (JP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>896087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4587549</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3774545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1749129</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1035969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1746857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$B$9:$G$9</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>59.19%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>64.64%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>63.34%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>70.33%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>62.68%</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>87.62%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-76BD-4E55-89DF-2F158AD34110}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRR 50-100%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A6103F23-8E03-4555-8453-5535DB96FAAC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FA83D37D-43EF-43C1-89BB-AE4D0C8818FA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CCB94EC4-C30F-4CFB-A204-D3E8E5574681}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E6241B45-B29F-4F88-829B-7880D5D1EC54}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E6908B8F-B429-4161-8138-43B8A10AEBAC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{83427884-6CE2-48BC-A358-A427CB879D51}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Hang Seng Composite (HK)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSE &amp; SZSE Composite (CN)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Russell 2000 (US)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTSE All Share (UK)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CDAX (DE)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JPX-Nikkei 400 (JP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>21996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82584</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13059</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26824</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$B$10:$G$10</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>1.45%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.16%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.42%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.71%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.79%</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.35%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-76BD-4E55-89DF-2F158AD34110}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IRR &gt; 100%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{55E453D7-A4AC-485C-8690-2C6F0E77F13D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A6B8811D-D2D9-47FA-AE85-938B91A408CB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0D0B4E5F-0694-45D5-86FD-E2472C241D7E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{976E0D39-AFE6-4468-9B2D-5BFE4A6C0AAD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{282EACD4-CE3B-4E38-AF41-7D83A54059CC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C5502E0D-55E2-4188-9BF7-1C3D45FE424D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-76BD-4E55-89DF-2F158AD34110}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Hang Seng Composite (HK)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SSE &amp; SZSE Composite (CN)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Russell 2000 (US)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FTSE All Share (UK)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>CDAX (DE)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JPX-Nikkei 400 (JP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4939</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26692</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31430</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$B$11:$G$11</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.33%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.38%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.53%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.30%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.30%</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.41%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-76BD-4E55-89DF-2F158AD34110}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1722,6 +3444,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="306">
   <cs:axisTitle>
@@ -2222,17 +3984,517 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="306">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>76199</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2255,6 +4517,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED17B0EC-5DF8-4E0C-B455-36B6A691D461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2560,11 +4860,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE089598-4248-4448-BC8A-D558A289EBFB}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2575,10 +4873,11 @@
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2601,13 +4900,16 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2615,7 +4917,7 @@
         <v>590907</v>
       </c>
       <c r="C2" s="1">
-        <f>SUM(I2:J2)</f>
+        <f>SUM(J2:K2)</f>
         <v>2400254</v>
       </c>
       <c r="D2" s="1">
@@ -2630,14 +4932,15 @@
       <c r="G2" s="1">
         <v>211929</v>
       </c>
-      <c r="I2" s="1">
+      <c r="H2" s="1"/>
+      <c r="J2" s="1">
         <v>1988304</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>411950</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2645,7 +4948,7 @@
         <v>896087</v>
       </c>
       <c r="C3" s="1">
-        <f>SUM(I3:J3)</f>
+        <f>SUM(J3:K3)</f>
         <v>4587549</v>
       </c>
       <c r="D3" s="1">
@@ -2660,14 +4963,15 @@
       <c r="G3" s="1">
         <v>1746857</v>
       </c>
-      <c r="I3" s="1">
+      <c r="H3" s="1"/>
+      <c r="J3" s="1">
         <v>3432595</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>1154954</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2675,7 +4979,7 @@
         <v>21996</v>
       </c>
       <c r="C4" s="1">
-        <f>SUM(I4:J4)</f>
+        <f>SUM(J4:K4)</f>
         <v>82584</v>
       </c>
       <c r="D4" s="1">
@@ -2690,14 +4994,15 @@
       <c r="G4" s="1">
         <v>26824</v>
       </c>
-      <c r="I4" s="1">
+      <c r="H4" s="1"/>
+      <c r="J4" s="1">
         <v>60027</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>22557</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2705,7 +5010,7 @@
         <v>4939</v>
       </c>
       <c r="C5" s="1">
-        <f>SUM(I5:J5)</f>
+        <f>SUM(J5:K5)</f>
         <v>26692</v>
       </c>
       <c r="D5" s="1">
@@ -2720,14 +5025,41 @@
       <c r="G5" s="1">
         <v>8164</v>
       </c>
-      <c r="I5" s="1">
+      <c r="H5" s="1"/>
+      <c r="J5" s="1">
         <v>20564</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>6128</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="2">
         <f>B2/SUM(B$2:B$5)</f>
         <v>0.39031354838965365</v>
@@ -2752,14 +5084,18 @@
         <f t="shared" si="0"/>
         <v>0.10629539757264364</v>
       </c>
+      <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
       <c r="B9" s="2">
         <f t="shared" ref="B9" si="1">B3/SUM(B$2:B$5)</f>
         <v>0.59189499639679266</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ref="C9:G12" si="2">C3/SUM(C$2:C$5)</f>
+        <f t="shared" ref="C9:G11" si="2">C3/SUM(C$2:C$5)</f>
         <v>0.64639959622825105</v>
       </c>
       <c r="D9" s="2">
@@ -2778,8 +5114,12 @@
         <f t="shared" si="2"/>
         <v>0.87615597354564756</v>
       </c>
+      <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
       <c r="B10" s="2">
         <f t="shared" ref="B10" si="3">B4/SUM(B$2:B$5)</f>
         <v>1.4529082935857626E-2</v>
@@ -2804,8 +5144,12 @@
         <f t="shared" si="2"/>
         <v>1.3453881934461981E-2</v>
       </c>
+      <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
       <c r="B11" s="2">
         <f t="shared" ref="B11" si="4">B5/SUM(B$2:B$5)</f>
         <v>3.2623722776959816E-3</v>
@@ -2830,6 +5174,7 @@
         <f t="shared" si="2"/>
         <v>4.0947469472467791E-3</v>
       </c>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
